--- a/REGULAR/OJT/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/OJT/VELUZ, DORMILUNA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="323">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2040,7 +2040,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4155" topLeftCell="A397" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D403" sqref="D403"/>
+      <selection pane="bottomLeft" activeCell="I403" sqref="I403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2201,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.1340000000000714</v>
+        <v>1.3840000000000714</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2211,7 +2211,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>66.5</v>
+        <v>66.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11212,13 +11212,15 @@
       <c r="B401" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C401" s="13"/>
+      <c r="C401" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G401" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
@@ -11256,7 +11258,9 @@
         <f>EDATE(A401,1)</f>
         <v>45108</v>
       </c>
-      <c r="B403" s="20"/>
+      <c r="B403" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C403" s="13"/>
       <c r="D403" s="39"/>
       <c r="E403" s="9"/>
@@ -11265,10 +11269,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H403" s="39"/>
+      <c r="H403" s="39">
+        <v>1</v>
+      </c>
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
-      <c r="K403" s="20"/>
+      <c r="K403" s="49">
+        <v>45124</v>
+      </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
@@ -12154,7 +12162,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>66.634000000000071</v>
+        <v>68.134000000000071</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/OJT/VELUZ, DORMILUNA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="324">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1002,6 +1002,9 @@
   </si>
   <si>
     <t>SVL(13-0-0)</t>
+  </si>
+  <si>
+    <t>8/8-11/2023</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1393,6 +1396,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1705,8 +1711,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K446" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K446"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K447" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K447"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2035,12 +2041,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K446"/>
+  <dimension ref="A2:K447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4155" topLeftCell="A397" activePane="bottomLeft"/>
+      <pane ySplit="4155" topLeftCell="A391" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I403" sqref="I403"/>
+      <selection pane="bottomLeft" activeCell="I405" sqref="I405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,54 +2076,54 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2143,18 +2149,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2201,7 +2207,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.3840000000000714</v>
+        <v>0.82700000000005502</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2211,7 +2217,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>66.75</v>
+        <v>65</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3266,7 +3272,7 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39">
@@ -5892,26 +5898,22 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C167" s="13"/>
-      <c r="D167" s="39">
-        <v>2</v>
-      </c>
+      <c r="D167" s="39"/>
       <c r="E167" s="34"/>
-      <c r="F167" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="F167" s="20"/>
       <c r="G167" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H167" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167" s="34"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20" t="s">
+      <c r="K167" s="52" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5947,7 +5949,7 @@
         <v>1.25</v>
       </c>
       <c r="D169" s="39">
-        <v>0.5</v>
+        <v>0.313</v>
       </c>
       <c r="E169" s="34"/>
       <c r="F169" s="20">
@@ -5973,7 +5975,7 @@
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="39">
-        <v>1.256</v>
+        <v>1.25</v>
       </c>
       <c r="E170" s="34"/>
       <c r="F170" s="20">
@@ -11110,7 +11112,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <f t="shared" ref="A397:A413" si="3">EDATE(A396,1)</f>
+        <f t="shared" ref="A397:A414" si="3">EDATE(A396,1)</f>
         <v>45017</v>
       </c>
       <c r="B397" s="20" t="s">
@@ -11261,13 +11263,15 @@
       <c r="B403" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C403" s="13"/>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D403" s="39"/>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H403" s="39">
         <v>1</v>
@@ -11283,9 +11287,13 @@
         <f t="shared" si="3"/>
         <v>45139</v>
       </c>
-      <c r="B404" s="20"/>
+      <c r="B404" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C404" s="13"/>
-      <c r="D404" s="39"/>
+      <c r="D404" s="39">
+        <v>4</v>
+      </c>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
       <c r="G404" s="13" t="str">
@@ -11295,14 +11303,15 @@
       <c r="H404" s="39"/>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="20"/>
+      <c r="K404" s="20" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="40">
-        <f t="shared" si="3"/>
-        <v>45170</v>
-      </c>
-      <c r="B405" s="20"/>
+      <c r="A405" s="40"/>
+      <c r="B405" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C405" s="13"/>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
@@ -11311,15 +11320,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H405" s="39"/>
+      <c r="H405" s="39">
+        <v>1</v>
+      </c>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20"/>
+      <c r="K405" s="49">
+        <v>45139</v>
+      </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <f t="shared" si="3"/>
-        <v>45200</v>
+        <f>EDATE(A404,1)</f>
+        <v>45170</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11338,7 +11351,7 @@
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="3"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11357,7 +11370,7 @@
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="3"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -11376,7 +11389,7 @@
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f t="shared" si="3"/>
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -11395,7 +11408,7 @@
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="3"/>
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -11414,7 +11427,7 @@
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="3"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -11433,7 +11446,7 @@
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" si="3"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -11452,7 +11465,7 @@
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f t="shared" si="3"/>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -11469,7 +11482,10 @@
       <c r="K413" s="20"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="40"/>
+      <c r="A414" s="40">
+        <f t="shared" si="3"/>
+        <v>45413</v>
+      </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
       <c r="D414" s="39"/>
@@ -11981,20 +11997,36 @@
       <c r="K445" s="20"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="41"/>
-      <c r="B446" s="15"/>
-      <c r="C446" s="42"/>
-      <c r="D446" s="43"/>
+      <c r="A446" s="40"/>
+      <c r="B446" s="20"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="39"/>
       <c r="E446" s="9"/>
-      <c r="F446" s="15"/>
-      <c r="G446" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H446" s="43"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="39"/>
       <c r="I446" s="9"/>
-      <c r="J446" s="12"/>
-      <c r="K446" s="15"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="41"/>
+      <c r="B447" s="15"/>
+      <c r="C447" s="42"/>
+      <c r="D447" s="43"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="15"/>
+      <c r="G447" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H447" s="43"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="12"/>
+      <c r="K447" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12040,7 +12072,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="A6 A12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12058,17 +12090,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -12109,11 +12141,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.2669999999999999</v>
+        <v>1.256</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -12152,17 +12184,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>68.134000000000071</v>
+        <v>65.827000000000055</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
